--- a/script/CMHAFF migrate to EHR-S FM format 20250130.xlsx
+++ b/script/CMHAFF migrate to EHR-S FM format 20250130.xlsx
@@ -215,14 +215,14 @@
 that the product development life cycle, for new apps and for upgrades to apps, ensure that requirements for functionality,
 reliability, performance, scalability, safety, compatibility, portability, and maintainability have been addressed, as well as any
 requirements that relate to aspects that include these items previously described above:
-• Product Information for consumers (e.g., App Store descriptions, product disclosures)
-• Security
-• Privacy
-• Permission to use device features
-• Data Access
-• Data Sharing
-• Terms of Use, Conditions
-• Product Development, including risk management, user-centered design, compliance with applicable regulations,
+* Product Information for consumers (e.g., App Store descriptions, product disclosures)
+* Security
+* Privacy
+* Permission to use device features
+* Data Access
+* Data Sharing
+* Terms of Use, Conditions
+* Product Development, including risk management, user-centered design, compliance with applicable regulations,
 functions (product description), reliability, performance, scalability, safety, compatibility, and portability.
 The security and privacy of information used by the app needs to be considered throughout the development
 phases of the app. Functionality must support the intended use of the app for the target users and stakeholders.
@@ -1756,11 +1756,11 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C147" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
-      <selection pane="bottomRight" activeCell="I127" activeCellId="0" sqref="I127"/>
+      <selection pane="bottomLeft" activeCell="A147" activeCellId="0" sqref="A147"/>
+      <selection pane="bottomRight" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1855,7 +1855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="269.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="14" t="s">
         <v>48</v>
       </c>

--- a/script/CMHAFF migrate to EHR-S FM format 20250130.xlsx
+++ b/script/CMHAFF migrate to EHR-S FM format 20250130.xlsx
@@ -370,13 +370,13 @@
     <t xml:space="preserve">Avoid excessive data use by the app, minimizing it as much as possible warning users when high data usage occurs (e.g., downloads and updates).[2]</t>
   </si>
   <si>
-    <t xml:space="preserve">Describe the use cases (business scenarios) and intended users for the appâ€™s main functions.[3]</t>
+    <t xml:space="preserve">Describe the use cases (business scenarios) and intended users for the app's main functions.[3]</t>
   </si>
   <si>
     <t xml:space="preserve">Use cases or requirement analysis? Motion: change to requirement analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Permit flexibility (adaptation) to the userâ€™s specific abilities, needs, or requirements.</t>
+    <t xml:space="preserve">Permit flexibility (adaptation) to the user's specific abilities, needs, or requirements.</t>
   </si>
   <si>
     <t xml:space="preserve">Not in CEN/ISO</t>
@@ -391,10 +391,10 @@
     <t xml:space="preserve">Customer Technical Support</t>
   </si>
   <si>
-    <t xml:space="preserve">Information as to how to access customer support, and channels of support (e.g., voice, email, text, Twitter) is clearly stated within the appâ€™s Terms of Use and as a feature accessible from within the app.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer support may be accessed prior to establishing a user account (e.g., User can contact customer support with questions about the appâ€™s Privacy Policy or Terms of Use before making a decision to actively use the app).</t>
+    <t xml:space="preserve">Information as to how to access customer support, and channels of support (e.g., voice, email, text, Twitter) is clearly stated within the app's Terms of Use and as a feature accessible from within the app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer support may be accessed prior to establishing a user account (e.g., User can contact customer support with questions about the app's Privacy Policy or Terms of Use before making a decision to actively use the app).</t>
   </si>
   <si>
     <t xml:space="preserve">Customer support is provided in the language(s) in which the app is published.</t>
@@ -403,10 +403,10 @@
     <t xml:space="preserve">Partly covered in 5.1.1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Within the appâ€™s Terms of Use, or in documentation available from within the app, any open source code library or code under copyright used to develop the app is given attribution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Support request involves accessing, disclosing, or changing customer data] The identity of the customer, and the customerâ€™s data access rights, must be verified before any disclosure or changing of customer data.</t>
+    <t xml:space="preserve">Within the app's Terms of Use, or in documentation available from within the app, any open source code library or code under copyright used to develop the app is given attribution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Support request involves accessing, disclosing, or changing customer data] The identity of the customer, and the customer's data access rights, must be verified before any disclosure or changing of customer data.</t>
   </si>
   <si>
     <t xml:space="preserve">Customer support queries will receive responses which directly address a stated problem or issue within two business days. A simple acknowledgement that a query has been received, without additional action, is insufficient.</t>
@@ -448,7 +448,7 @@
     <t xml:space="preserve">General Information</t>
   </si>
   <si>
-    <t xml:space="preserve">The description of an app includes the main functionality, the intended use, the intended (target) audience, and potential use of the userâ€™s personal data by the app.</t>
+    <t xml:space="preserve">The description of an app includes the main functionality, the intended use, the intended (target) audience, and potential use of the user's personal data by the app.</t>
   </si>
   <si>
     <t xml:space="preserve">Screen shots of the app accurately depict the screens of the current version of the product.</t>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">The app description may also include data related to app reliability and validity tests or population research results.</t>
   </si>
   <si>
-    <t xml:space="preserve">Declare the degree of admission of liability (publisherâ€™s acceptance or disclaimer of responsibility) regarding the selection and use of the appâ€™s content.[3]</t>
+    <t xml:space="preserve">Declare the degree of admission of liability (publisher's acceptance or disclaimer of responsibility) regarding the selection and use of the app's content.[3]</t>
   </si>
   <si>
     <t xml:space="preserve">PIM.1.4</t>
@@ -547,16 +547,16 @@
     <t xml:space="preserve">Launch App and Establish User Account</t>
   </si>
   <si>
-    <t xml:space="preserve">A user can review the appâ€™s Terms of Use before personal data about the user is collected and used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[The app creates user accounts] User acceptance of the appâ€™s Terms of Use is logged before a user account is authorized (See section 3.4.10 for information about audit log record creation).</t>
+    <t xml:space="preserve">A user can review the app's Terms of Use before personal data about the user is collected and used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[The app creates user accounts] User acceptance of the app's Terms of Use is logged before a user account is authorized (See section 3.4.10 for information about audit log record creation).</t>
   </si>
   <si>
     <t xml:space="preserve">[User is allowed to use pre-existing account credentials from an Identity Provider (IDP) to access the app] Before a user chooses to use pre-existing account credentials to access the app: (a) The user is informed about what attribute information will be used by the app associated with the pre-existing credentials; (b) The user is informed about what data is communicated back to the IDP at the time of account creation and at each subsequent user authentication.</t>
   </si>
   <si>
-    <t xml:space="preserve">For purposes of establishing an account, the minimum necessary amount of a userâ€™s personally identifiable information (PII) is collected, e.g., the information is necessary to authenticate the user, provide customer support, or affect the app logic.</t>
+    <t xml:space="preserve">For purposes of establishing an account, the minimum necessary amount of a user's personally identifiable information (PII) is collected, e.g., the information is necessary to authenticate the user, provide customer support, or affect the app logic.</t>
   </si>
   <si>
     <t xml:space="preserve">APU</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">At the request of an app user, the app terminates such that access to PHI or PII requires a new, successful authentication attempt.</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other external HIT system (e.g., EHR) is a system actor] Verify a subjectâ€™s association with their real-world identity, establishing that a subject is who they claim to be (identity proofing).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The EHR authorizes an app userâ€™s access to app features when these features are supported by data provided by or written to the EHR.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PII or PHI are displayed] The app terminates the app or makes PHI or PII invisible after a period of time of user inactivity as described in the appâ€™s Terms of Use. This feature is sometimes called â€œinactivity timeoutâ€ â€œSession timeoutâ€ or â€œautomatic logoff.â€ The determination to include this feature within an app is made as part of the overall risk analysis regarding the sensitivity of data provided by or through the app.</t>
+    <t xml:space="preserve">[Other external HIT system (e.g., EHR) is a system actor] Verify a subject's association with their real-world identity, establishing that a subject is who they claim to be (identity proofing).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The EHR authorizes an app user's access to app features when these features are supported by data provided by or written to the EHR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PII or PHI are displayed] The app terminates the app or makes PHI or PII invisible after a period of time of user inactivity as described in the app's Terms of Use. This feature is sometimes called â€œinactivity timeoutâ€ â€œSession timeoutâ€ or â€œautomatic logoff.â€ The determination to include this feature within an app is made as part of the overall risk analysis regarding the sensitivity of data provided by or through the app.</t>
   </si>
   <si>
     <t xml:space="preserve">[Passwords are stored on the device] passwords are encrypted and never displayed as plaintext.</t>
@@ -909,10 +909,10 @@
     <t xml:space="preserve">Specifications for Conditions and Agreements</t>
   </si>
   <si>
-    <t xml:space="preserve">Before download, a user can easily access the appâ€™s Terms of Use. This may be accomplished through a link in the app description in the relevant app store.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before download, a use can easily access the appâ€™s Privacy Policy. This may be accomplished through a link in the app description in the app store.</t>
+    <t xml:space="preserve">Before download, a user can easily access the app's Terms of Use. This may be accomplished through a link in the app description in the relevant app store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before download, a use can easily access the app's Privacy Policy. This may be accomplished through a link in the app description in the app store.</t>
   </si>
   <si>
     <t xml:space="preserve">[Rewards are given for app participation] Clearly disclose all conditions and time limitations governing rewards. These include but are not limited to: how activity is tracked; how promptly rewards are fulfilled; whether rewards can expire or be withdrawn; whether and how rewards can be transferred to another person; whether rewards can be accumulated into larger rewards; etc.</t>
@@ -936,7 +936,7 @@
     <t xml:space="preserve">Disclose the use of advertising mechanisms, distinguish advertisements from app content, and provide ways to deactivate or skip advertisements.[1]</t>
   </si>
   <si>
-    <t xml:space="preserve">Provide a means for a user to access the appâ€™s Privacy Policy at any time during the usage of the app.</t>
+    <t xml:space="preserve">Provide a means for a user to access the app's Privacy Policy at any time during the usage of the app.</t>
   </si>
   <si>
     <t xml:space="preserve">CMHAFF criteria text is NOT formatted as required by FM/FP
@@ -1514,7 +1514,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="70"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="79.86"/>
@@ -1756,14 +1756,14 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E156" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A147" activeCellId="0" sqref="A147"/>
-      <selection pane="bottomRight" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A156" activeCellId="0" sqref="A156"/>
+      <selection pane="bottomRight" activeCell="K162" activeCellId="0" sqref="K162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.57"/>
@@ -1855,7 +1855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="269.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="14" t="s">
         <v>48</v>
       </c>
@@ -9465,7 +9465,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="93.43"/>
   </cols>
